--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidApp\CovidModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SterPol\Desktop\covid_thesis\CovidApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC283A1E-B507-4421-B7B5-6BA8D33E397B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212ECCD5-DE29-409E-BCAE-5DA86688B68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>KW</t>
   </si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Stergios</t>
+  </si>
+  <si>
+    <t>drd</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,20 +411,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9</v>
       </c>
@@ -455,7 +455,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -466,7 +466,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -477,7 +477,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -488,7 +488,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -499,7 +499,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -510,7 +510,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -521,7 +521,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -532,7 +532,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -543,7 +543,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -554,7 +554,7 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -565,7 +565,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -576,7 +576,7 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -587,7 +587,7 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -600,8 +600,11 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SterPol\Desktop\covid_thesis\CovidApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartosz Wawrzyniak\Desktop\CovidApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212ECCD5-DE29-409E-BCAE-5DA86688B68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A340C07E-3E39-4E2B-BBBF-22421820F94D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{07BD2B97-C613-46FE-8F3C-27007DC3B061}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>KW</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>drd</t>
+  </si>
+  <si>
+    <t>SEIR model, agent based model</t>
+  </si>
+  <si>
+    <t>work on app</t>
+  </si>
+  <si>
+    <t>app done</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,21 +419,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E7E983-B06D-4629-A802-B192BB851F1D}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -454,8 +463,11 @@
       <c r="C2" s="1">
         <v>44262</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -465,8 +477,14 @@
       <c r="C3" s="1">
         <v>44269</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -477,7 +495,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -487,8 +505,11 @@
       <c r="C5" s="1">
         <v>44283</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -499,7 +520,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -510,7 +531,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -521,7 +542,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -532,7 +553,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -543,7 +564,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -554,7 +575,7 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -565,7 +586,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -576,7 +597,7 @@
         <v>44339</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -587,7 +608,7 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -604,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
